--- a/05_test/非機能要求一覧(記入済み).xlsx
+++ b/05_test/非機能要求一覧(記入済み).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0472A704-0E65-484C-BAE7-0425939AF6A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E87562-8244-4884-B785-2EC00249BC49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="765" windowWidth="18330" windowHeight="9480" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1065" yWindow="135" windowWidth="19605" windowHeight="10230" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -459,7 +459,8 @@
   <si>
     <t>設計段階で検討する。
 対応策：地雷の総数とマスの総数の属性を
-　　　　マインスイーパークラスに持たせた。</t>
+　　　　マインスイーパークラスに持たせた。
+         :コンパイルごとに変更可能</t>
     <rPh sb="0" eb="2">
       <t>セッケイ</t>
     </rPh>
@@ -489,6 +490,12 @@
     </rPh>
     <rPh sb="47" eb="48">
       <t>モ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>カノウ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1161,7 +1168,7 @@
   <dimension ref="B1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1628,7 +1635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="24"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
@@ -2320,15 +2327,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2498,6 +2496,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
@@ -2515,14 +2522,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2538,4 +2537,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/05_test/非機能要求一覧(記入済み).xlsx
+++ b/05_test/非機能要求一覧(記入済み).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E87562-8244-4884-B785-2EC00249BC49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9E7892-7B05-45C5-8B96-266898589ED9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="135" windowWidth="19605" windowHeight="10230" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="195" yWindow="345" windowWidth="20280" windowHeight="10230" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="非機能要求" sheetId="5" r:id="rId1"/>
@@ -434,30 +434,6 @@
   </si>
   <si>
     <t>設計段階で検討する。
-対応策：GUIと繋がりがあるのは、
-　　　　マインスイーパーのみとした。</t>
-    <rPh sb="0" eb="2">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダンカイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケントウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タイオウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>サク</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ツナ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>設計段階で検討する。
 対応策：地雷の総数とマスの総数の属性を
 　　　　マインスイーパークラスに持たせた。
          :コンパイルごとに変更可能</t>
@@ -496,6 +472,30 @@
     </rPh>
     <rPh sb="73" eb="75">
       <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>設計段階で検討する。
+対応策：GUIと繋がりがあるのは、
+　　　　マインスイーパークラスのみとした。</t>
+    <rPh sb="0" eb="2">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ダンカイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>サク</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツナ</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -1167,8 +1167,8 @@
   </sheetPr>
   <dimension ref="B1:F21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1635,7 +1635,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:6" ht="92.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="24"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
@@ -1647,7 +1647,7 @@
         <v>25</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1706,7 +1706,7 @@
         <v>21</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -2327,6 +2327,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2496,15 +2505,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{404F4775-3C65-4E3B-9A3A-4D66C02FC597}">
   <ds:schemaRefs>
@@ -2522,6 +2522,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F1C1027-CEFA-4AD3-8FFD-CE8AA26AEFED}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2537,12 +2545,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{318C8FCB-4BA7-4987-A979-F628D7182333}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>